--- a/data/evaluation/evaluation_North_Spring_Oranges.xlsx
+++ b/data/evaluation/evaluation_North_Spring_Oranges.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2989.606060606061</v>
+        <v>2960.515151515152</v>
       </c>
       <c r="C3" t="n">
-        <v>17732219.58585859</v>
+        <v>17722910.49494949</v>
       </c>
       <c r="D3" t="n">
-        <v>4210.964210944874</v>
+        <v>4209.858726245988</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1799644787523103</v>
+        <v>0.1803949824001484</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2988.942303403667</v>
+        <v>3002.981473972255</v>
       </c>
       <c r="C4" t="n">
-        <v>17921948.18803926</v>
+        <v>18276620.84544706</v>
       </c>
       <c r="D4" t="n">
-        <v>4233.432199532581</v>
+        <v>4275.11647156508</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1711903829640479</v>
+        <v>0.1547883653778426</v>
       </c>
     </row>
     <row r="5">
